--- a/generados/reporte_financiero.xlsx
+++ b/generados/reporte_financiero.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bancolombia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Efecty" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,50 +476,60 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>CENTRO COSTO FS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CENTRO COSTO ARP</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>EMPLEADO</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CARTERA EN FINANSUEÑOS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CARTERA EN ARPESOD</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CANTIDAD CUENTAS FS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CANTIDAD CUENTAS ARP</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>FACTURA FINAL</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>SALDOS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>VALIDACION ULTIMO SALDO</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CASA COBRANZA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>CODEUDOR</t>
         </is>
@@ -554,46 +565,48 @@
       <c r="G2" t="n">
         <v>152000</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>FF06-5866</t>
         </is>
@@ -629,46 +642,48 @@
       <c r="G3" t="n">
         <v>585000</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -704,46 +719,50 @@
       <c r="G4" t="n">
         <v>155000</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>10401</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>DF-4704</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>DF-4704</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>383480</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>228480.0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -779,46 +798,48 @@
       <c r="G5" t="n">
         <v>2123126</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -854,46 +875,50 @@
       <c r="G6" t="n">
         <v>110000</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>70104</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>FEMC-1167</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>FEMC-1167</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>615000</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>505000.0</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -929,46 +954,50 @@
       <c r="G7" t="n">
         <v>112000</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>20114</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>DF-3410</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>DF-3410</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>111223</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1004,46 +1033,50 @@
       <c r="G8" t="n">
         <v>379000</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>10204</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>DF-5006</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>DF-5006</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>860939</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>481939.0</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1079,46 +1112,50 @@
       <c r="G9" t="n">
         <v>85400</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>10402</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>DF-5863</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>DF-5863</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>401328</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>315928.0</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1154,46 +1191,50 @@
       <c r="G10" t="n">
         <v>270000</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>20105</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>DF-8931</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>DF-8931</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>2308262</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2038262.0</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1229,46 +1270,50 @@
       <c r="G11" t="n">
         <v>196300</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>30114</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>DF-7177</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>DF-7177</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>1060017</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>863717.0</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1304,46 +1349,50 @@
       <c r="G12" t="n">
         <v>155000</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>10301</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>DF-9263</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>DF-9263</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>1321074</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>1166074.0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1379,46 +1428,50 @@
       <c r="G13" t="n">
         <v>208000</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>20103</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>DF-11382</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>DF-11382</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>2200868</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>1992868.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1454,46 +1507,50 @@
       <c r="G14" t="n">
         <v>168400</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>70104</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>FEMC-1166</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>FEMC-1166</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>673600</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>505200.0</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1529,46 +1586,50 @@
       <c r="G15" t="n">
         <v>314000</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>10401</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>FEAM-6252</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>FEAM-6252</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>314000</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1604,46 +1665,50 @@
       <c r="G16" t="n">
         <v>300000</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>10101</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>PR01-3035</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>PR01-3035</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>4205324</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>3905324.0</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>ZCN</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1679,46 +1744,50 @@
       <c r="G17" t="n">
         <v>178000</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>70104</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>FEMC-888</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>FEMC-888</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>348450</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>170450.0</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1754,46 +1823,50 @@
       <c r="G18" t="n">
         <v>538000</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>30304</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>FESM-50283</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>FESM-50283</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>538000</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1829,46 +1902,50 @@
       <c r="G19" t="n">
         <v>155000</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>10310</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>DF-3148</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>DF-3148</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>315184</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>160184.0</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1904,46 +1981,50 @@
       <c r="G20" t="n">
         <v>156000</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>10310</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>FESA-5166</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>FESA-5166</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>156000</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -1979,46 +2060,48 @@
       <c r="G21" t="n">
         <v>783000</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2054,46 +2137,48 @@
       <c r="G22" t="n">
         <v>2869000</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2129,46 +2214,52 @@
       <c r="G23" t="n">
         <v>247000</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>30122</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70104</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>DF-4867</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>FEMC-959</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>DF-4867</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>632014</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>385014.0</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2204,46 +2295,52 @@
       <c r="G24" t="n">
         <v>234000</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>30122</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70104</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>DF-4867</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>FEMC-959</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>DF-4867</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>632014</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>398014.0</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2279,46 +2376,50 @@
       <c r="G25" t="n">
         <v>510000</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>70104</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>FEMC-1040</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>FEMC-1040</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>1020000</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>510000.0</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>FEMC-1217</t>
         </is>
@@ -2354,46 +2455,50 @@
       <c r="G26" t="n">
         <v>136000</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>70104</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>FEMC-936</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>FEMC-936</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>272000</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>136000.0</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2429,46 +2534,48 @@
       <c r="G27" t="n">
         <v>169000</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2504,46 +2611,50 @@
       <c r="G28" t="n">
         <v>100000</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>10310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>FESA-6030</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>FESA-6030</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>693000</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>593000.0</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>FESA-5373</t>
         </is>
@@ -2579,46 +2690,50 @@
       <c r="G29" t="n">
         <v>190000</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>10107</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>DF-6307</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>DF-6307</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>472495</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>282495.0</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2654,46 +2769,48 @@
       <c r="G30" t="n">
         <v>2192000</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2729,46 +2846,50 @@
       <c r="G31" t="n">
         <v>208000</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>20103</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>DF-7161</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>DF-7161</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>1489015</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>1281015.0</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2804,46 +2925,50 @@
       <c r="G32" t="n">
         <v>182000</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>10204</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>FEBO-4449</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>FEBO-4449</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>728000</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>546000.0</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -2879,46 +3004,50 @@
       <c r="G33" t="n">
         <v>230000</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>DF-11898</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>DF-11898</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>2330232</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2100232.0</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>DF-4383</t>
         </is>
@@ -2954,46 +3083,50 @@
       <c r="G34" t="n">
         <v>536000</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>70104</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>FEMC-1194</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>FEMC-1194</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>804000</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>268000.0</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3029,46 +3162,48 @@
       <c r="G35" t="n">
         <v>1801000</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3104,46 +3239,50 @@
       <c r="G36" t="n">
         <v>160000</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>10301</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>DF-7702</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>DF-7702</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>1146165</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>986165.0</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3179,46 +3318,50 @@
       <c r="G37" t="n">
         <v>135000</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>30101</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>DF-11388</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>DF-11388</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>1594191</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>1459191.0</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>DF-7384</t>
         </is>
@@ -3254,46 +3397,50 @@
       <c r="G38" t="n">
         <v>700000</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>20114</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>DF-3547</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>DF-3547</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>1224642</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>524642.0</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3329,46 +3476,50 @@
       <c r="G39" t="n">
         <v>140000</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>30309</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>DF-7728</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>DF-7728</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>972042</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>832042.0</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3404,46 +3555,48 @@
       <c r="G40" t="n">
         <v>3599000</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3479,46 +3632,50 @@
       <c r="G41" t="n">
         <v>266000</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>20114</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>DF-4897</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>DF-4897</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>639867</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>373867.0</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3554,46 +3711,50 @@
       <c r="G42" t="n">
         <v>126000</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>30117</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>DF-5762</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>2</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>DF-5762</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>528792</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>402792.0</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3629,46 +3790,50 @@
       <c r="G43" t="n">
         <v>126000</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>30117</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>DF-7898</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>2</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>DF-7898</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>1843095</v>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>1717095.0</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3704,46 +3869,48 @@
       <c r="G44" t="n">
         <v>1385000</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3779,46 +3946,50 @@
       <c r="G45" t="n">
         <v>215000</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>10204</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>DF-7089</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>DF-7089</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>1155732</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>940732.0</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3854,46 +4025,48 @@
       <c r="G46" t="n">
         <v>2930000</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -3929,46 +4102,50 @@
       <c r="G47" t="n">
         <v>236000</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>30102</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>DF-9456</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>DF-9456</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>1950042</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>1714042.0</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
         <is>
           <t>SIN CODEUDOR</t>
         </is>
@@ -4004,46 +4181,50 @@
       <c r="G48" t="n">
         <v>600000</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>10310</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>FESA-6030</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>FESA-6030</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>693000</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>93000.0</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
         <is>
           <t>FESA-5373</t>
         </is>
@@ -4067,48 +4248,3099 @@
       <c r="G49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>SIN CARTERA</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>SIN CARTERA</t>
-        </is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>pago total</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>SIN CASA DE COBRANZA</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>SIN CODEUDOR</t>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Identificación</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N° de Autorización</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CENTRO COSTO FS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CENTRO COSTO ARP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLEADO</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CARTERA EN FINANSUEÑOS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CARTERA EN ARPESOD</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CANTIDAD CUENTAS FS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CANTIDAD CUENTAS ARP</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>FACTURA FINAL</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SALDOS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>VALIDACION ULTIMO SALDO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CASA COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17141493</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>152000</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>FF06-5866</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27309237</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>585000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1061691943</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>10401</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DF-4704</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DF-4704</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>383480</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>228480.0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16887349</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2123126</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1125181494</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>FEMC-1167</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>FEMC-1167</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>615000</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>505000.0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1117349464</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112000</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>20114</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DF-3410</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DF-3410</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>111223</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4751181</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>379000</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>10204</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DF-5006</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>DF-5006</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>860939</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>481939.0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1061772824</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>85400</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>10402</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DF-5863</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DF-5863</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>401328</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>315928.0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>66977101</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>270000</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>20105</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DF-8931</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DF-8931</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>2308262</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2038262.0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1004577128</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>196300</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>30114</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DF-7177</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DF-7177</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1060017</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>863717.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1147952325</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>10301</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DF-9263</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DF-9263</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1321074</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1166074.0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>29531622</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>208000</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DF-11382</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DF-11382</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>2200868</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1992868.0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27308715</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>168400</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>FEMC-1166</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>FEMC-1166</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>673600</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>505200.0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25482332</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>314000</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>10401</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>FEAM-6252</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>FEAM-6252</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>314000</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1061775951</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>10101</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PR01-3035</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PR01-3035</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>4205324</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3905324.0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ZCN</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1007012246</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>178000</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>FEMC-888</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>FEMC-888</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>348450</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>170450.0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>59794079</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>538000</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>30304</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>FESM-50283</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>FESM-50283</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>538000</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1147952201</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>10310</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DF-3148</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DF-3148</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>315184</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>160184.0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1067522676</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>156000</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>10310</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>FESA-5166</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>FESA-5166</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>156000</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>36934658</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>783000</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>69009664</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2869000</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>39820203</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>247000</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>30122</v>
+      </c>
+      <c r="G23" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DF-4867</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>FEMC-959</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DF-4867</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>632014</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>385014.0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>39820203</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>234000</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>30122</v>
+      </c>
+      <c r="G24" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DF-4867</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>FEMC-959</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DF-4867</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>632014</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>398014.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1007012402</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>510000</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>FEMC-1040</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>FEMC-1040</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>510000.0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>FEMC-1217</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1127072717</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>136000</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>FEMC-936</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>FEMC-936</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>272000</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>136000.0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>31484437</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1064433409</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>10310</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>FESA-6030</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>FESA-6030</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>693000</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>593000.0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>FESA-5373</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1062278163</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>10107</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DF-6307</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>DF-6307</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>472495</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>282495.0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1061501766</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2192000</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1113529088</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>208000</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>DF-7161</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>DF-7161</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1489015</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1281015.0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25521846</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>182000</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>10204</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>FEBO-4449</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>FEBO-4449</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>728000</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>546000.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1061756198</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>230000</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DF-11898</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DF-11898</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>2330232</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2100232.0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>DF-4383</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1127080715</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>536000</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>70104</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>FEMC-1194</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>FEMC-1194</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>804000</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>268000.0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>98384744</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1801000</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1003374761</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>160000</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>10301</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>DF-7702</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DF-7702</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1146165</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>986165.0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>59815181</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>135000</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>30101</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DF-11388</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DF-11388</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1594191</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1459191.0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>DF-7384</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6537964</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>700000</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>20114</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>DF-3547</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DF-3547</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1224642</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>524642.0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1004714345</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>30309</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>DF-7728</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>DF-7728</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>972042</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>832042.0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>66932800</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3599000</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>31192032</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>266000</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>20114</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>DF-4897</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DF-4897</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>639867</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>373867.0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>59817370</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>30117</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>DF-5762</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>DF-5762</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>528792</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>402792.0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>59817370</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>30117</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>DF-7898</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>DF-7898</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1843095</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1717095.0</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14836148</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1385000</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31526789</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>215000</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>10204</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>DF-7089</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>DF-7089</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>1155732</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>940732.0</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1061501766</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2930000</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>pago total</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>76258272</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>236000</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>30102</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>DF-9456</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>DF-9456</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1950042</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1714042.0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>SIN CODEUDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1064433409</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>600000</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>10310</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SIN CARTERA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>FESA-6030</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>FESA-6030</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>693000</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>93000.0</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>SIN CASA DE COBRANZA</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>FESA-5373</t>
         </is>
       </c>
     </row>

--- a/generados/reporte_financiero.xlsx
+++ b/generados/reporte_financiero.xlsx
@@ -17,10 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -539,8 +535,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45813</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -616,8 +614,10 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45813</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -693,8 +693,10 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45813</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -772,8 +774,10 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45813</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -849,8 +853,10 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>45813</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -928,8 +934,10 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>45813</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1007,8 +1015,10 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>45813</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1086,8 +1096,10 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45813</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1165,8 +1177,10 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>45813</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1244,8 +1258,10 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>45813</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1323,8 +1339,10 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>45813</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1402,8 +1420,10 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>45813</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1481,8 +1501,10 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>45813</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1560,8 +1582,10 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>45813</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1639,8 +1663,10 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>45813</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1718,8 +1744,10 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>45813</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1797,8 +1825,10 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>45813</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1876,8 +1906,10 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>45813</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1955,8 +1987,10 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>45813</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2034,8 +2068,10 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>45813</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2111,8 +2147,10 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>45813</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2188,8 +2226,10 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>45813</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2269,8 +2309,10 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>45813</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2350,8 +2392,10 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>45813</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2429,8 +2473,10 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>45813</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2508,8 +2554,10 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>45813</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2585,8 +2633,10 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>45813</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2664,8 +2714,10 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>45813</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2743,8 +2795,10 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>45813</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2820,8 +2874,10 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>45813</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2899,8 +2955,10 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>45813</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2978,8 +3036,10 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>45813</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3057,8 +3117,10 @@
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>45813</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3136,8 +3198,10 @@
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>45813</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3213,8 +3277,10 @@
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>45813</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3292,8 +3358,10 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>45813</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3371,8 +3439,10 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>45813</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3450,8 +3520,10 @@
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>45813</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3529,8 +3601,10 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>45813</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3606,8 +3680,10 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>45813</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3685,8 +3761,10 @@
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>45813</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3764,8 +3842,10 @@
       <c r="A43" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>45813</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3843,8 +3923,10 @@
       <c r="A44" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>45813</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3920,8 +4002,10 @@
       <c r="A45" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>45813</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3999,8 +4083,10 @@
       <c r="A46" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>45813</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -4076,8 +4162,10 @@
       <c r="A47" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>45813</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -4155,8 +4243,10 @@
       <c r="A48" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>45813</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4414,7 +4504,11 @@
         <v>152000</v>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -4475,7 +4569,11 @@
         <v>585000</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -4536,7 +4634,11 @@
         <v>155000</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>10401</v>
       </c>
@@ -4599,7 +4701,11 @@
         <v>2123126</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -4660,7 +4766,11 @@
         <v>110000</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>70104</v>
@@ -4723,7 +4833,11 @@
         <v>112000</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F7" t="n">
         <v>20114</v>
       </c>
@@ -4786,7 +4900,11 @@
         <v>379000</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F8" t="n">
         <v>10204</v>
       </c>
@@ -4849,7 +4967,11 @@
         <v>85400</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F9" t="n">
         <v>10402</v>
       </c>
@@ -4912,7 +5034,11 @@
         <v>270000</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F10" t="n">
         <v>20105</v>
       </c>
@@ -4975,7 +5101,11 @@
         <v>196300</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F11" t="n">
         <v>30114</v>
       </c>
@@ -5038,7 +5168,11 @@
         <v>155000</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F12" t="n">
         <v>10301</v>
       </c>
@@ -5101,7 +5235,11 @@
         <v>208000</v>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F13" t="n">
         <v>20103</v>
       </c>
@@ -5164,7 +5302,11 @@
         <v>168400</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>70104</v>
@@ -5227,7 +5369,11 @@
         <v>314000</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>10401</v>
@@ -5290,7 +5436,11 @@
         <v>300000</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>10101</v>
@@ -5353,7 +5503,11 @@
         <v>178000</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>70104</v>
@@ -5416,7 +5570,11 @@
         <v>538000</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>30304</v>
@@ -5479,7 +5637,11 @@
         <v>155000</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F19" t="n">
         <v>10310</v>
       </c>
@@ -5542,7 +5704,11 @@
         <v>156000</v>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>10310</v>
@@ -5605,7 +5771,11 @@
         <v>783000</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -5666,7 +5836,11 @@
         <v>2869000</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -5727,7 +5901,11 @@
         <v>247000</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F23" t="n">
         <v>30122</v>
       </c>
@@ -5792,7 +5970,11 @@
         <v>234000</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F24" t="n">
         <v>30122</v>
       </c>
@@ -5857,7 +6039,11 @@
         <v>510000</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>70104</v>
@@ -5920,7 +6106,11 @@
         <v>136000</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>70104</v>
@@ -5983,7 +6173,11 @@
         <v>169000</v>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -6044,7 +6238,11 @@
         <v>100000</v>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>10310</v>
@@ -6107,7 +6305,11 @@
         <v>190000</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F29" t="n">
         <v>10107</v>
       </c>
@@ -6170,7 +6372,11 @@
         <v>2192000</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -6231,7 +6437,11 @@
         <v>208000</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F31" t="n">
         <v>20103</v>
       </c>
@@ -6294,7 +6504,11 @@
         <v>182000</v>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>10204</v>
@@ -6357,7 +6571,11 @@
         <v>230000</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F33" t="n">
         <v>10402</v>
       </c>
@@ -6420,7 +6638,11 @@
         <v>536000</v>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>70104</v>
@@ -6483,7 +6705,11 @@
         <v>1801000</v>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -6544,7 +6770,11 @@
         <v>160000</v>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F36" t="n">
         <v>10301</v>
       </c>
@@ -6607,7 +6837,11 @@
         <v>135000</v>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F37" t="n">
         <v>30101</v>
       </c>
@@ -6670,7 +6904,11 @@
         <v>700000</v>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F38" t="n">
         <v>20114</v>
       </c>
@@ -6733,7 +6971,11 @@
         <v>140000</v>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F39" t="n">
         <v>30309</v>
       </c>
@@ -6796,7 +7038,11 @@
         <v>3599000</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -6857,7 +7103,11 @@
         <v>266000</v>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F41" t="n">
         <v>20114</v>
       </c>
@@ -6920,7 +7170,11 @@
         <v>126000</v>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F42" t="n">
         <v>30117</v>
       </c>
@@ -6983,7 +7237,11 @@
         <v>126000</v>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F43" t="n">
         <v>30117</v>
       </c>
@@ -7046,7 +7304,11 @@
         <v>1385000</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -7107,7 +7369,11 @@
         <v>215000</v>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F45" t="n">
         <v>10204</v>
       </c>
@@ -7170,7 +7436,11 @@
         <v>2930000</v>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -7231,7 +7501,11 @@
         <v>236000</v>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F47" t="n">
         <v>30102</v>
       </c>
@@ -7294,7 +7568,11 @@
         <v>600000</v>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
         <v>10310</v>
